--- a/step2_obtain_gdp_data/inputs/gdp_data/regional/RUS/RUS.xlsx
+++ b/step2_obtain_gdp_data/inputs/gdp_data/regional/RUS/RUS.xlsx
@@ -758,7 +758,7 @@
     <t>2. The GDP value obtained is from the table "GROSS REGIONAL PRODUCT BY CONSTITUENT ENTITIES OF THE RUSSIAN FEDERATION in xxxx" in Russian Statistical Yearbook</t>
   </si>
   <si>
-    <t>3. unit is million roubles</t>
+    <t>3. unit is million/10 roubles</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +777,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -795,21 +801,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -840,45 +833,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1201,7 +1188,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="162.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="162.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1240,16 +1227,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="56.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="56.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,10 +1851,10 @@
       <c r="B33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>26167544</v>
       </c>
       <c r="E33" s="7">
@@ -1921,10 +1908,10 @@
       <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <v>16924066</v>
       </c>
       <c r="E36" s="7">
@@ -2076,7 +2063,7 @@
       <c r="C44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="11">
         <v>17116847</v>
       </c>
       <c r="E44" s="7">
@@ -2095,7 +2082,7 @@
       <c r="C45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="11">
         <v>1969829</v>
       </c>
       <c r="E45" s="7">
@@ -2114,7 +2101,7 @@
       <c r="C46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="11">
         <v>2689631</v>
       </c>
       <c r="E46" s="7">
@@ -2133,7 +2120,7 @@
       <c r="C47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="11">
         <v>26339126</v>
       </c>
       <c r="E47" s="7">
@@ -2152,14 +2139,14 @@
       <c r="C48" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="11">
         <v>6759523</v>
       </c>
       <c r="E48" s="7">
         <v>2020</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="1" t="s">
@@ -2171,14 +2158,14 @@
       <c r="C49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="11">
         <v>3483422</v>
       </c>
       <c r="E49" s="7">
         <v>2020</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="1" t="s">
@@ -2190,7 +2177,7 @@
       <c r="C50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="11">
         <v>14031988</v>
       </c>
       <c r="E50" s="7">
@@ -2209,7 +2196,7 @@
       <c r="C51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="11">
         <v>3959237</v>
       </c>
       <c r="E51" s="7">
@@ -2228,7 +2215,7 @@
       <c r="C52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="11">
         <v>15866406</v>
       </c>
       <c r="E52" s="7">
@@ -2247,7 +2234,7 @@
       <c r="C53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="11">
         <v>10509279</v>
       </c>
       <c r="E53" s="7">
@@ -2266,7 +2253,7 @@
       <c r="C54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="11">
         <v>4930942</v>
       </c>
       <c r="E54" s="7">
@@ -2285,7 +2272,7 @@
       <c r="C55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="11">
         <v>15995540</v>
       </c>
       <c r="E55" s="7">
@@ -2304,7 +2291,7 @@
       <c r="C56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="11">
         <v>8634011</v>
       </c>
       <c r="E56" s="7">
@@ -2323,7 +2310,7 @@
       <c r="C57" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="11">
         <v>4408029</v>
       </c>
       <c r="E57" s="7">
@@ -2342,7 +2329,7 @@
       <c r="C58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="11">
         <v>2423050</v>
       </c>
       <c r="E58" s="7">
@@ -2361,7 +2348,7 @@
       <c r="C59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="11">
         <v>25297809</v>
       </c>
       <c r="E59" s="7">
@@ -2380,7 +2367,7 @@
       <c r="C60" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="11">
         <v>11662021</v>
       </c>
       <c r="E60" s="7">
@@ -2399,7 +2386,7 @@
       <c r="C61" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="11">
         <v>33533027</v>
       </c>
       <c r="E61" s="7">
@@ -2418,7 +2405,7 @@
       <c r="C62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="11">
         <v>27681913</v>
       </c>
       <c r="E62" s="7">
@@ -2437,7 +2424,7 @@
       <c r="C63" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="11">
         <v>16151492</v>
       </c>
       <c r="E63" s="7">
@@ -2456,7 +2443,7 @@
       <c r="C64" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="11">
         <v>625203</v>
       </c>
       <c r="E64" s="7">
@@ -2475,7 +2462,7 @@
       <c r="C65" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="11">
         <v>3031558</v>
       </c>
       <c r="E65" s="7">
@@ -2494,7 +2481,7 @@
       <c r="C66" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="11">
         <v>828107</v>
       </c>
       <c r="E66" s="7">
@@ -2513,7 +2500,7 @@
       <c r="C67" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="11">
         <v>2667999</v>
       </c>
       <c r="E67" s="7">
@@ -2532,7 +2519,7 @@
       <c r="C68" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="11">
         <v>6716269</v>
       </c>
       <c r="E68" s="7">
@@ -2548,10 +2535,10 @@
       <c r="B69" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="10">
         <v>4253782</v>
       </c>
       <c r="E69" s="7">
@@ -2570,7 +2557,7 @@
       <c r="C70" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="11">
         <v>27226400</v>
       </c>
       <c r="E70" s="7">
@@ -2589,7 +2576,7 @@
       <c r="C71" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="11">
         <v>15051511</v>
       </c>
       <c r="E71" s="7">
@@ -2608,7 +2595,7 @@
       <c r="C72" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="11">
         <v>10380867</v>
       </c>
       <c r="E72" s="7">
@@ -2627,7 +2614,7 @@
       <c r="C73" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="11">
         <v>13568615</v>
       </c>
       <c r="E73" s="7">
@@ -2646,7 +2633,7 @@
       <c r="C74" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="11">
         <v>7634653</v>
       </c>
       <c r="E74" s="7">
@@ -2665,7 +2652,7 @@
       <c r="C75" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="11">
         <v>5569419</v>
       </c>
       <c r="E75" s="7">
@@ -2684,7 +2671,7 @@
       <c r="C76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="11">
         <v>11412652</v>
       </c>
       <c r="E76" s="7">
@@ -2703,7 +2690,7 @@
       <c r="C77" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="11">
         <v>2944766</v>
       </c>
       <c r="E77" s="7">
@@ -2722,7 +2709,7 @@
       <c r="C78" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="11">
         <v>10999440</v>
       </c>
       <c r="E78" s="7">
@@ -2741,7 +2728,7 @@
       <c r="C79" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="11">
         <v>8612306</v>
       </c>
       <c r="E79" s="7">
@@ -2760,7 +2747,7 @@
       <c r="C80" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="11">
         <v>4490592</v>
       </c>
       <c r="E80" s="7">
@@ -2779,7 +2766,7 @@
       <c r="C81" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="11">
         <v>2840707</v>
       </c>
       <c r="E81" s="7">
@@ -2798,7 +2785,7 @@
       <c r="C82" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="11">
         <v>10027079</v>
       </c>
       <c r="E82" s="7">
@@ -2817,7 +2804,7 @@
       <c r="C83" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="11">
         <v>630144</v>
       </c>
       <c r="E83" s="7">
@@ -2836,7 +2823,7 @@
       <c r="C84" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="11">
         <v>1199924</v>
       </c>
       <c r="E84" s="7">
@@ -2855,7 +2842,7 @@
       <c r="C85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="10">
         <v>13548105</v>
       </c>
       <c r="E85" s="7">
@@ -2874,7 +2861,7 @@
       <c r="C86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="10">
         <v>4686662</v>
       </c>
       <c r="E86" s="7">
@@ -2893,7 +2880,7 @@
       <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="10">
         <v>7368304</v>
       </c>
       <c r="E87" s="7">
@@ -2912,7 +2899,7 @@
       <c r="C88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="10">
         <v>12547222</v>
       </c>
       <c r="E88" s="7">
@@ -2931,7 +2918,7 @@
       <c r="C89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="10">
         <v>3006263</v>
       </c>
       <c r="E89" s="7">
@@ -2950,7 +2937,7 @@
       <c r="C90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="10">
         <v>6641500</v>
       </c>
       <c r="E90" s="7">
@@ -2969,7 +2956,7 @@
       <c r="C91" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="10">
         <v>2415296</v>
       </c>
       <c r="E91" s="7">
@@ -2988,7 +2975,7 @@
       <c r="C92" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="10">
         <v>6838020</v>
       </c>
       <c r="E92" s="7">
@@ -3007,7 +2994,7 @@
       <c r="C93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="10">
         <v>8439819</v>
       </c>
       <c r="E93" s="7">
@@ -3026,7 +3013,7 @@
       <c r="C94" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="10">
         <v>68322984</v>
       </c>
       <c r="E94" s="7">
@@ -3045,7 +3032,7 @@
       <c r="C95" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="10">
         <v>3366878</v>
       </c>
       <c r="E95" s="7">
@@ -3064,7 +3051,7 @@
       <c r="C96" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="10">
         <v>5319621</v>
       </c>
       <c r="E96" s="7">
@@ -3083,7 +3070,7 @@
       <c r="C97" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="10">
         <v>4216728</v>
       </c>
       <c r="E97" s="7">
@@ -3102,7 +3089,7 @@
       <c r="C98" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="10">
         <v>4292680</v>
       </c>
       <c r="E98" s="7">
@@ -3121,7 +3108,7 @@
       <c r="C99" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="10">
         <v>5550979</v>
       </c>
       <c r="E99" s="7">
@@ -3140,7 +3127,7 @@
       <c r="C100" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="10">
         <v>8678170</v>
       </c>
       <c r="E100" s="7">
@@ -3159,7 +3146,7 @@
       <c r="C101" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="10">
         <v>6902532</v>
       </c>
       <c r="E101" s="7">
@@ -3178,7 +3165,7 @@
       <c r="C102" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="10">
         <v>244711604</v>
       </c>
       <c r="E102" s="7">
@@ -3197,7 +3184,7 @@
       <c r="C103" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="10">
         <v>4471467</v>
       </c>
       <c r="E103" s="7">
@@ -3216,7 +3203,7 @@
       <c r="C104" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="10">
         <v>8570130</v>
       </c>
       <c r="E104" s="7">
@@ -3254,7 +3241,7 @@
       <c r="C106" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="10">
         <v>4068380</v>
       </c>
       <c r="E106" s="7">
@@ -3273,7 +3260,7 @@
       <c r="C107" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="10">
         <v>10099177</v>
       </c>
       <c r="E107" s="7">
@@ -3292,7 +3279,7 @@
       <c r="C108" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="10">
         <v>6750006</v>
       </c>
       <c r="E108" s="7">
@@ -3311,7 +3298,7 @@
       <c r="C109" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="10">
         <v>14811878</v>
       </c>
       <c r="E109" s="7">
@@ -3330,7 +3317,7 @@
       <c r="C110" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="10">
         <v>10837794</v>
       </c>
       <c r="E110" s="7">
@@ -3349,7 +3336,7 @@
       <c r="C111" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="10">
         <v>3420695</v>
       </c>
       <c r="E111" s="7">
@@ -3368,7 +3355,7 @@
       <c r="C112" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="10">
         <v>2199486</v>
       </c>
       <c r="E112" s="7">
@@ -3387,7 +3374,7 @@
       <c r="C113" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="10">
         <v>94404111</v>
       </c>
       <c r="E113" s="7">
@@ -3406,7 +3393,7 @@
       <c r="C114" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="10">
         <v>1707928</v>
       </c>
       <c r="E114" s="7">
@@ -3425,7 +3412,7 @@
       <c r="C115" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="10">
         <v>1000078</v>
       </c>
       <c r="E115" s="7">
@@ -3441,10 +3428,10 @@
       <c r="B116" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="10">
         <v>32006071</v>
       </c>
       <c r="E116" s="7">
@@ -3463,7 +3450,7 @@
       <c r="C117" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="10">
         <v>6570156</v>
       </c>
       <c r="E117" s="7">
@@ -3482,7 +3469,7 @@
       <c r="C118" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="10">
         <v>10515151</v>
       </c>
       <c r="E118" s="7">
@@ -3498,10 +3485,10 @@
       <c r="B119" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="10">
         <v>20170073</v>
       </c>
       <c r="E119" s="7">
@@ -3520,7 +3507,7 @@
       <c r="C120" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="10">
         <v>8144274</v>
       </c>
       <c r="E120" s="7">
@@ -3539,7 +3526,7 @@
       <c r="C121" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="10">
         <v>772371</v>
       </c>
       <c r="E121" s="7">
@@ -3558,7 +3545,7 @@
       <c r="C122" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="10">
         <v>1993263</v>
       </c>
       <c r="E122" s="7">
@@ -3577,7 +3564,7 @@
       <c r="C123" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="10">
         <v>1093900</v>
       </c>
       <c r="E123" s="7">
@@ -3596,7 +3583,7 @@
       <c r="C124" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="10">
         <v>2026018</v>
       </c>
       <c r="E124" s="7">
@@ -3615,7 +3602,7 @@
       <c r="C125" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="10">
         <v>2680685</v>
       </c>
       <c r="E125" s="7">
@@ -3634,7 +3621,7 @@
       <c r="C126" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="10">
         <v>10245602</v>
       </c>
       <c r="E126" s="7">
@@ -3653,7 +3640,7 @@
       <c r="C127" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="10">
         <v>20000379</v>
       </c>
       <c r="E127" s="7">
@@ -3672,7 +3659,7 @@
       <c r="C128" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="10">
         <v>2219910</v>
       </c>
       <c r="E128" s="7">
@@ -3691,7 +3678,7 @@
       <c r="C129" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="10">
         <v>2980231</v>
       </c>
       <c r="E129" s="7">
@@ -3710,7 +3697,7 @@
       <c r="C130" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="10">
         <v>34547000</v>
       </c>
       <c r="E130" s="7">
@@ -3729,7 +3716,7 @@
       <c r="C131" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="10">
         <v>8419362</v>
       </c>
       <c r="E131" s="7">
@@ -3748,7 +3735,7 @@
       <c r="C132" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="10">
         <v>3929579</v>
       </c>
       <c r="E132" s="7">
@@ -3767,7 +3754,7 @@
       <c r="C133" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="10">
         <v>17405253</v>
       </c>
       <c r="E133" s="7">
@@ -3786,7 +3773,7 @@
       <c r="C134" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="10">
         <v>4814070</v>
       </c>
       <c r="E134" s="7">
@@ -3805,7 +3792,7 @@
       <c r="C135" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="10">
         <v>18881214</v>
       </c>
       <c r="E135" s="7">
@@ -3824,7 +3811,7 @@
       <c r="C136" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="10">
         <v>13942803</v>
       </c>
       <c r="E136" s="7">
@@ -3843,7 +3830,7 @@
       <c r="C137" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="10">
         <v>5372900</v>
       </c>
       <c r="E137" s="7">
@@ -3862,7 +3849,7 @@
       <c r="C138" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="10">
         <v>21225372</v>
       </c>
       <c r="E138" s="7">
@@ -3881,7 +3868,7 @@
       <c r="C139" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="10">
         <v>10058009</v>
       </c>
       <c r="E139" s="7">
@@ -3900,7 +3887,7 @@
       <c r="C140" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="10">
         <v>4988063</v>
       </c>
       <c r="E140" s="7">
@@ -3919,7 +3906,7 @@
       <c r="C141" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="10">
         <v>2684947</v>
       </c>
       <c r="E141" s="7">
@@ -3938,7 +3925,7 @@
       <c r="C142" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="10">
         <v>30384428</v>
       </c>
       <c r="E142" s="7">
@@ -3957,7 +3944,7 @@
       <c r="C143" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="10">
         <v>15360124</v>
       </c>
       <c r="E143" s="7">
@@ -3976,7 +3963,7 @@
       <c r="C144" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="10">
         <v>56518972</v>
       </c>
       <c r="E144" s="7">
@@ -3995,7 +3982,7 @@
       <c r="C145" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="10">
         <v>41615296</v>
       </c>
       <c r="E145" s="7">
@@ -4014,7 +4001,7 @@
       <c r="C146" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="10">
         <v>20425934</v>
       </c>
       <c r="E146" s="7">
@@ -4033,7 +4020,7 @@
       <c r="C147" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="10">
         <v>713362</v>
       </c>
       <c r="E147" s="7">
@@ -4052,7 +4039,7 @@
       <c r="C148" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="10">
         <v>3421848</v>
       </c>
       <c r="E148" s="7">
@@ -4071,7 +4058,7 @@
       <c r="C149" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="10">
         <v>887707</v>
       </c>
       <c r="E149" s="7">
@@ -4090,7 +4077,7 @@
       <c r="C150" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="10">
         <v>3075169</v>
       </c>
       <c r="E150" s="7">
@@ -4109,7 +4096,7 @@
       <c r="C151" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="10">
         <v>8454296</v>
       </c>
       <c r="E151" s="7">
@@ -4125,10 +4112,10 @@
       <c r="B152" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="10">
         <v>4874229</v>
       </c>
       <c r="E152" s="7">
@@ -4147,7 +4134,7 @@
       <c r="C153" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="10">
         <v>30648316</v>
       </c>
       <c r="E153" s="7">
@@ -4166,7 +4153,7 @@
       <c r="C154" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="10">
         <v>19243607</v>
       </c>
       <c r="E154" s="7">
@@ -4185,7 +4172,7 @@
       <c r="C155" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="10">
         <v>18073871</v>
       </c>
       <c r="E155" s="7">
@@ -4204,7 +4191,7 @@
       <c r="C156" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="10">
         <v>16170111</v>
       </c>
       <c r="E156" s="7">
@@ -4223,7 +4210,7 @@
       <c r="C157" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="10">
         <v>8541325</v>
       </c>
       <c r="E157" s="7">
@@ -4242,7 +4229,7 @@
       <c r="C158" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D158" s="10">
         <v>7063915</v>
       </c>
       <c r="E158" s="7">
@@ -4261,7 +4248,7 @@
       <c r="C159" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="10">
         <v>16155271</v>
       </c>
       <c r="E159" s="7">
@@ -4280,7 +4267,7 @@
       <c r="C160" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="10">
         <v>3375049</v>
       </c>
       <c r="E160" s="7">
@@ -4299,7 +4286,7 @@
       <c r="C161" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="10">
         <v>13088841</v>
       </c>
       <c r="E161" s="7">
@@ -4318,7 +4305,7 @@
       <c r="C162" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="10">
         <v>9871865</v>
       </c>
       <c r="E162" s="7">
@@ -4337,7 +4324,7 @@
       <c r="C163" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="10">
         <v>5309478</v>
       </c>
       <c r="E163" s="7">
@@ -4356,7 +4343,7 @@
       <c r="C164" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="10">
         <v>3147076</v>
       </c>
       <c r="E164" s="7">
@@ -4375,7 +4362,7 @@
       <c r="C165" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="10">
         <v>12343553</v>
       </c>
       <c r="E165" s="7">
@@ -4394,7 +4381,7 @@
       <c r="C166" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="10">
         <v>787016</v>
       </c>
       <c r="E166" s="7">
@@ -4413,7 +4400,7 @@
       <c r="C167" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="10">
         <v>1361524</v>
       </c>
       <c r="E167" s="7">
